--- a/Kunder/Submit/Submit_mappning.xlsx
+++ b/Kunder/Submit/Submit_mappning.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/stefan/Documents/GitHub/ChatGPT-filimportkonverteringar/Kunder/Submit/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D6E05BF-8257-C34E-B4E3-E975EDE0930E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{116E5233-0582-884D-AE3D-F881658845DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38500" yWindow="3100" windowWidth="21020" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="36320" yWindow="500" windowWidth="21020" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -19,6 +19,17 @@
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext uri="GoogleSheetsCustomDataVersion2">
       <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataChecksum="FvDZgTJCMnLAYCoM41gN485T/ACdxCgUrywu+Z5F2SQ="/>
     </ext>
@@ -150,7 +161,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="hh:mm"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -212,8 +223,15 @@
       <name val="Verdana"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="15">
+  <fills count="16">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -298,8 +316,14 @@
         <bgColor rgb="FFFFFF00"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="12">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -417,24 +441,11 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -471,26 +482,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="13" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="9" fillId="14" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="9" fillId="13" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFC7CE"/>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="1">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -719,7 +721,7 @@
   <dimension ref="A1:Z993"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -796,13 +798,13 @@
       <c r="Z1" s="3"/>
     </row>
     <row r="2" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="32">
+      <c r="A2" s="36">
         <v>1101</v>
       </c>
-      <c r="B2" s="24">
-        <v>1112</v>
+      <c r="B2" s="37">
+        <v>231</v>
       </c>
-      <c r="C2" s="32" t="s">
+      <c r="C2" s="36" t="s">
         <v>22</v>
       </c>
       <c r="D2" s="24">
@@ -812,7 +814,7 @@
       <c r="F2" s="23"/>
       <c r="G2" s="25"/>
       <c r="H2" s="23"/>
-      <c r="I2" s="33" t="s">
+      <c r="I2" s="32" t="s">
         <v>23</v>
       </c>
       <c r="J2" s="26"/>
@@ -834,18 +836,19 @@
       <c r="Z2" s="6"/>
     </row>
     <row r="3" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="32">
+      <c r="A3" s="36">
         <v>1102</v>
       </c>
-      <c r="B3" s="24">
-        <v>1113</v>
+      <c r="B3" s="37">
+        <v>173</v>
       </c>
+      <c r="C3" s="29"/>
       <c r="D3" s="24"/>
       <c r="E3" s="25"/>
       <c r="F3" s="23"/>
       <c r="G3" s="25"/>
       <c r="H3" s="23"/>
-      <c r="I3" s="33" t="s">
+      <c r="I3" s="32" t="s">
         <v>24</v>
       </c>
       <c r="J3" s="26"/>
@@ -867,18 +870,19 @@
       <c r="Z3" s="6"/>
     </row>
     <row r="4" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="32">
+      <c r="A4" s="36">
         <v>1103</v>
       </c>
-      <c r="B4" s="24">
-        <v>1114</v>
+      <c r="B4" s="37">
+        <v>8</v>
       </c>
+      <c r="C4" s="29"/>
       <c r="D4" s="24"/>
       <c r="E4" s="25"/>
       <c r="F4" s="23"/>
       <c r="G4" s="25"/>
       <c r="H4" s="23"/>
-      <c r="I4" s="33" t="s">
+      <c r="I4" s="32" t="s">
         <v>25</v>
       </c>
       <c r="J4" s="26"/>
@@ -900,18 +904,19 @@
       <c r="Z4" s="6"/>
     </row>
     <row r="5" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="32">
+      <c r="A5" s="36">
         <v>1104</v>
       </c>
-      <c r="B5" s="24">
-        <v>1115</v>
+      <c r="B5" s="37">
+        <v>183</v>
       </c>
+      <c r="C5" s="29"/>
       <c r="D5" s="24"/>
       <c r="E5" s="23"/>
       <c r="F5" s="23"/>
       <c r="G5" s="23"/>
       <c r="H5" s="23"/>
-      <c r="I5" s="33" t="s">
+      <c r="I5" s="32" t="s">
         <v>26</v>
       </c>
       <c r="J5" s="26"/>
@@ -933,18 +938,19 @@
       <c r="Z5" s="6"/>
     </row>
     <row r="6" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="32">
+      <c r="A6" s="36">
         <v>1105</v>
       </c>
-      <c r="B6" s="24">
-        <v>1116</v>
+      <c r="B6" s="37">
+        <v>182</v>
       </c>
+      <c r="C6" s="29"/>
       <c r="D6" s="24"/>
       <c r="E6" s="23"/>
       <c r="F6" s="23"/>
       <c r="G6" s="23"/>
       <c r="H6" s="23"/>
-      <c r="I6" s="33" t="s">
+      <c r="I6" s="32" t="s">
         <v>27</v>
       </c>
       <c r="J6" s="26"/>
@@ -966,18 +972,19 @@
       <c r="Z6" s="6"/>
     </row>
     <row r="7" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="32">
+      <c r="A7" s="36">
         <v>1106</v>
       </c>
-      <c r="B7" s="24">
+      <c r="B7" s="35">
         <v>1117</v>
       </c>
+      <c r="C7" s="29"/>
       <c r="D7" s="24"/>
       <c r="E7" s="23"/>
       <c r="F7" s="23"/>
       <c r="G7" s="23"/>
       <c r="H7" s="23"/>
-      <c r="I7" s="33" t="s">
+      <c r="I7" s="32" t="s">
         <v>28</v>
       </c>
       <c r="J7" s="26"/>
@@ -999,18 +1006,19 @@
       <c r="Z7" s="6"/>
     </row>
     <row r="8" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="32">
+      <c r="A8" s="36">
         <v>1107</v>
       </c>
-      <c r="B8" s="24">
+      <c r="B8" s="35">
         <v>1118</v>
       </c>
+      <c r="C8" s="29"/>
       <c r="D8" s="24"/>
       <c r="E8" s="23"/>
       <c r="F8" s="23"/>
       <c r="G8" s="23"/>
       <c r="H8" s="23"/>
-      <c r="I8" s="33" t="s">
+      <c r="I8" s="32" t="s">
         <v>29</v>
       </c>
       <c r="J8" s="26"/>
@@ -1032,18 +1040,19 @@
       <c r="Z8" s="6"/>
     </row>
     <row r="9" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="32">
+      <c r="A9" s="36">
         <v>1108</v>
       </c>
-      <c r="B9" s="24">
+      <c r="B9" s="35">
         <v>1119</v>
       </c>
+      <c r="C9" s="29"/>
       <c r="D9" s="24"/>
       <c r="E9" s="23"/>
       <c r="F9" s="23"/>
       <c r="G9" s="23"/>
       <c r="H9" s="23"/>
-      <c r="I9" s="34" t="s">
+      <c r="I9" s="33" t="s">
         <v>30</v>
       </c>
       <c r="J9" s="26"/>
@@ -1065,18 +1074,19 @@
       <c r="Z9" s="6"/>
     </row>
     <row r="10" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="32">
+      <c r="A10" s="36">
         <v>1109</v>
       </c>
-      <c r="B10" s="24">
+      <c r="B10" s="35">
         <v>1120</v>
       </c>
+      <c r="C10" s="29"/>
       <c r="D10" s="24"/>
       <c r="E10" s="23"/>
       <c r="F10" s="23"/>
       <c r="G10" s="23"/>
       <c r="H10" s="23"/>
-      <c r="I10" s="35" t="s">
+      <c r="I10" s="34" t="s">
         <v>31</v>
       </c>
       <c r="J10" s="26"/>
@@ -1098,18 +1108,19 @@
       <c r="Z10" s="6"/>
     </row>
     <row r="11" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="32">
+      <c r="A11" s="36">
         <v>1110</v>
       </c>
-      <c r="B11" s="24">
-        <v>1121</v>
+      <c r="B11" s="37">
+        <v>331</v>
       </c>
+      <c r="C11" s="29"/>
       <c r="D11" s="24"/>
       <c r="E11" s="23"/>
       <c r="F11" s="23"/>
       <c r="G11" s="23"/>
       <c r="H11" s="23"/>
-      <c r="I11" s="35" t="s">
+      <c r="I11" s="34" t="s">
         <v>32</v>
       </c>
       <c r="J11" s="26"/>
@@ -1131,18 +1142,19 @@
       <c r="Z11" s="6"/>
     </row>
     <row r="12" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="32">
+      <c r="A12" s="36">
         <v>1111</v>
       </c>
-      <c r="B12" s="24">
-        <v>1122</v>
+      <c r="B12" s="37">
+        <v>181</v>
       </c>
+      <c r="C12" s="29"/>
       <c r="D12" s="24"/>
       <c r="E12" s="23"/>
       <c r="F12" s="23"/>
       <c r="G12" s="23"/>
       <c r="H12" s="23"/>
-      <c r="I12" s="35" t="s">
+      <c r="I12" s="34" t="s">
         <v>33</v>
       </c>
       <c r="J12" s="26"/>
@@ -1164,18 +1176,19 @@
       <c r="Z12" s="6"/>
     </row>
     <row r="13" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="32">
+      <c r="A13" s="36">
         <v>1112</v>
       </c>
-      <c r="B13" s="24">
+      <c r="B13" s="35">
         <v>1123</v>
       </c>
+      <c r="C13" s="29"/>
       <c r="D13" s="24"/>
       <c r="E13" s="23"/>
       <c r="F13" s="23"/>
       <c r="G13" s="23"/>
       <c r="H13" s="23"/>
-      <c r="I13" s="35" t="s">
+      <c r="I13" s="34" t="s">
         <v>34</v>
       </c>
       <c r="J13" s="26"/>
@@ -1197,18 +1210,19 @@
       <c r="Z13" s="6"/>
     </row>
     <row r="14" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="32">
+      <c r="A14" s="36">
         <v>1113</v>
       </c>
-      <c r="B14" s="24">
+      <c r="B14" s="35">
         <v>1124</v>
       </c>
+      <c r="C14" s="29"/>
       <c r="D14" s="24"/>
       <c r="E14" s="23"/>
       <c r="F14" s="23"/>
       <c r="G14" s="23"/>
       <c r="H14" s="23"/>
-      <c r="I14" s="35" t="s">
+      <c r="I14" s="34" t="s">
         <v>35</v>
       </c>
       <c r="J14" s="26"/>
@@ -1230,18 +1244,19 @@
       <c r="Z14" s="6"/>
     </row>
     <row r="15" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="32">
+      <c r="A15" s="36">
         <v>1114</v>
       </c>
-      <c r="B15" s="24">
+      <c r="B15" s="35">
         <v>1125</v>
       </c>
+      <c r="C15" s="29"/>
       <c r="D15" s="24"/>
       <c r="E15" s="23"/>
       <c r="F15" s="23"/>
       <c r="G15" s="23"/>
       <c r="H15" s="23"/>
-      <c r="I15" s="33" t="s">
+      <c r="I15" s="32" t="s">
         <v>36</v>
       </c>
       <c r="J15" s="26"/>
@@ -1263,18 +1278,19 @@
       <c r="Z15" s="8"/>
     </row>
     <row r="16" spans="1:26" ht="13" x14ac:dyDescent="0.15">
-      <c r="A16" s="32">
+      <c r="A16" s="36">
         <v>1115</v>
       </c>
-      <c r="B16" s="24">
+      <c r="B16" s="35">
         <v>1126</v>
       </c>
+      <c r="C16" s="29"/>
       <c r="D16" s="24"/>
       <c r="E16" s="23"/>
       <c r="F16" s="23"/>
       <c r="G16" s="23"/>
       <c r="H16" s="23"/>
-      <c r="I16" s="33" t="s">
+      <c r="I16" s="32" t="s">
         <v>37</v>
       </c>
       <c r="J16" s="26"/>
@@ -1296,12 +1312,13 @@
       <c r="Z16" s="9"/>
     </row>
     <row r="17" spans="1:26" ht="13" x14ac:dyDescent="0.15">
-      <c r="A17" s="32">
+      <c r="A17" s="36">
         <v>1116</v>
       </c>
-      <c r="B17" s="24">
+      <c r="B17" s="35">
         <v>1127</v>
       </c>
+      <c r="C17" s="29"/>
       <c r="D17" s="24"/>
       <c r="E17" s="23"/>
       <c r="F17" s="23"/>
@@ -1327,10 +1344,10 @@
       <c r="Z17" s="9"/>
     </row>
     <row r="18" spans="1:26" ht="13" x14ac:dyDescent="0.15">
-      <c r="A18" s="32">
+      <c r="A18" s="36">
         <v>1117</v>
       </c>
-      <c r="B18" s="24">
+      <c r="B18" s="35">
         <v>1128</v>
       </c>
       <c r="C18" s="23"/>
@@ -1359,10 +1376,10 @@
       <c r="Z18" s="9"/>
     </row>
     <row r="19" spans="1:26" ht="13" x14ac:dyDescent="0.15">
-      <c r="A19" s="32">
+      <c r="A19" s="36">
         <v>1118</v>
       </c>
-      <c r="B19" s="24">
+      <c r="B19" s="35">
         <v>1129</v>
       </c>
       <c r="C19" s="23"/>
@@ -1391,11 +1408,11 @@
       <c r="Z19" s="9"/>
     </row>
     <row r="20" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="32">
+      <c r="A20" s="36">
         <v>1119</v>
       </c>
-      <c r="B20" s="24">
-        <v>1130</v>
+      <c r="B20" s="37">
+        <v>179</v>
       </c>
       <c r="C20" s="23"/>
       <c r="D20" s="23"/>
@@ -1423,10 +1440,10 @@
       <c r="Z20" s="9"/>
     </row>
     <row r="21" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="32">
+      <c r="A21" s="36">
         <v>1120</v>
       </c>
-      <c r="B21" s="24">
+      <c r="B21" s="35">
         <v>1131</v>
       </c>
       <c r="C21" s="23"/>
@@ -1455,10 +1472,10 @@
       <c r="Z21" s="9"/>
     </row>
     <row r="22" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="32">
+      <c r="A22" s="36">
         <v>1121</v>
       </c>
-      <c r="B22" s="24">
+      <c r="B22" s="35">
         <v>1132</v>
       </c>
       <c r="C22" s="23"/>
@@ -1487,11 +1504,11 @@
       <c r="Z22" s="9"/>
     </row>
     <row r="23" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="32">
+      <c r="A23" s="36">
         <v>1122</v>
       </c>
-      <c r="B23" s="24">
-        <v>1133</v>
+      <c r="B23" s="37">
+        <v>178</v>
       </c>
       <c r="C23" s="23"/>
       <c r="D23" s="23"/>
@@ -1519,10 +1536,10 @@
       <c r="Z23" s="9"/>
     </row>
     <row r="24" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="32">
+      <c r="A24" s="36">
         <v>1123</v>
       </c>
-      <c r="B24" s="24">
+      <c r="B24" s="35">
         <v>1134</v>
       </c>
       <c r="C24" s="23"/>
@@ -1551,11 +1568,11 @@
       <c r="Z24" s="9"/>
     </row>
     <row r="25" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="32">
+      <c r="A25" s="36">
         <v>1124</v>
       </c>
-      <c r="B25" s="24">
-        <v>1135</v>
+      <c r="B25" s="37">
+        <v>180</v>
       </c>
       <c r="C25" s="23"/>
       <c r="D25" s="23"/>
@@ -28684,12 +28701,7 @@
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B990">
     <sortCondition ref="A2:A990"/>
   </sortState>
-  <conditionalFormatting sqref="I13">
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
-      <formula>"-"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I14">
+  <conditionalFormatting sqref="I13:I14">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>"-"</formula>
     </cfRule>
